--- a/Nebraska/WaterAllocation/NEwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Nebraska/WaterAllocation/NEwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B06CFC-E598-4CC9-B500-1739B21DF78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6287BA4-7C48-44D9-A542-ECB11C0DDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="421">
   <si>
     <t>Name</t>
   </si>
@@ -281,9 +281,6 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -587,9 +584,6 @@
     <t>Name of the contact person</t>
   </si>
   <si>
-    <t>Link to where the organization data can be found.</t>
-  </si>
-  <si>
     <t>Name corresponding to unique organization and the organizaiton ID (i.e. Utah Division of Water Resources)</t>
   </si>
   <si>
@@ -762,9 +756,6 @@
   </si>
   <si>
     <t>Notes:</t>
-  </si>
-  <si>
-    <t>Unspecified</t>
   </si>
   <si>
     <t>Their API seems to return duplicate rows. Their 'AllSurfaceWaterPoints' API only contains 8970 non-duplicate rows. Tested with different return sizes.</t>
@@ -1115,24 +1106,12 @@
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Nebraska</t>
   </si>
   <si>
-    <t>SourceName</t>
-  </si>
-  <si>
-    <t>PointOfDiversionID</t>
-  </si>
-  <si>
     <t>get from watersource.csv</t>
   </si>
   <si>
     <t>get from site.csv</t>
   </si>
   <si>
-    <t>RightStatus</t>
-  </si>
-  <si>
-    <t>PriorityDate</t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -1235,47 +1214,159 @@
     <t>https://dnr.nebraska.gov/surface-water/ownership-preview-groundwater-wells-and-surface-water-rights</t>
   </si>
   <si>
-    <t>Use 'RightID' with https://nednr.nebraska.gov/dynamic/WaterRights/WaterRights/SWRDetailPage?RightId=</t>
-  </si>
-  <si>
-    <t>ProGrant</t>
-  </si>
-  <si>
-    <t>FirstName, LastName</t>
-  </si>
-  <si>
     <t>*Use current date</t>
-  </si>
-  <si>
-    <t>RightID</t>
-  </si>
-  <si>
-    <t>UseDescription,
-RightUse</t>
   </si>
   <si>
     <t>POD,
 POU</t>
   </si>
   <si>
+    <t>NEwr_M1, 
+NEwr_M2</t>
+  </si>
+  <si>
+    <t>Surface Water,
+Groundwater</t>
+  </si>
+  <si>
+    <t>Surface Water
+Groundwater for groundwater data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllSurfaceWaterPoints,
+BND_SurfaceWaterRights_DNR,
+AllWells </t>
+  </si>
+  <si>
     <t>LatitudeDecimalDegrees,
+Latitude,
 Latitude</t>
   </si>
   <si>
     <t>LongitudeDecimalDegrees,
+Longitude,
 Longitude</t>
   </si>
   <si>
-    <t>Use cusotm wadeID for POU</t>
-  </si>
-  <si>
-    <t>POD data, use api and all surface water sites: https://nednr.nebraska.gov/IwipApi/swagger/ui/index#/</t>
-  </si>
-  <si>
-    <t>POU data, use shapefile download: https://www.nebraskamap.gov/datasets/surface-water-right-boundaries/explore?location=41.453617%2C-99.687989%2C8.00&amp;showTable=true</t>
-  </si>
-  <si>
-    <t>Use above API to retrieve surface water data.  Will merge with POU shapefile data vie RightID.</t>
+    <t>-
+-
+'AllWells</t>
+  </si>
+  <si>
+    <t>-
+-
+Location</t>
+  </si>
+  <si>
+    <t>AllSurfaceWaterPoints
+-
+AllWells</t>
+  </si>
+  <si>
+    <t>-
+-
+SeriesType</t>
+  </si>
+  <si>
+    <t>AllSurfaceWaterPoints,
+BND_SurfaceWaterRights_DNR
+-</t>
+  </si>
+  <si>
+    <t>HUC12
+HUC12
+-</t>
+  </si>
+  <si>
+    <t>Use custom wadeID for POU</t>
+  </si>
+  <si>
+    <t>Unspecified for AllSurfaceWaterPoints &amp; ND_SurfaceWaterRights_DNR</t>
+  </si>
+  <si>
+    <t>ProGrant
+ProGrant
+-</t>
+  </si>
+  <si>
+    <t>AllSurfaceWaterPoints,
+BND_SurfaceWaterRights_DNR,
+-</t>
+  </si>
+  <si>
+    <t>RightStatus
+-
+Status</t>
+  </si>
+  <si>
+    <t>FirstName, LastName
+-
+'FirstName, LastName</t>
+  </si>
+  <si>
+    <t>PriorityDate
+PriorityDate
+-</t>
+  </si>
+  <si>
+    <t>ProGrant
+ProGrant
+PumpRate</t>
+  </si>
+  <si>
+    <t>UseDescription,
+RightUse,
+WellUseDescription</t>
+  </si>
+  <si>
+    <t>-
+-
+AllWells</t>
+  </si>
+  <si>
+    <t>-
+-
+Acres</t>
+  </si>
+  <si>
+    <t>POD surface water data, use api and all surface water sites: https://nednr.nebraska.gov/IwipApi/swagger/ui/index#/</t>
+  </si>
+  <si>
+    <t>POU surface water data, use shapefile download: https://www.nebraskamap.gov/datasets/surface-water-right-boundaries/explore?location=41.453617%2C-99.687989%2C8.00&amp;showTable=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POD Groundwater data, use the Wells/AllWells service, https://nednr.nebraska.gov/IwipApi/api/v1/Wells/AllWells </t>
+  </si>
+  <si>
+    <t>Use above API to retrieve surface water &amp; Groundwater data.  Will surface water data merge with POU surface water shapefile data vie RightID.</t>
+  </si>
+  <si>
+    <t>For groundwater, we will consider it exempt.  Nebraska does not regulate groundwater under a prior appropriation.  They use Natural Resources Districts, which have their own rules</t>
+  </si>
+  <si>
+    <t>RightID
+RightID
+RegistrationNumber</t>
+  </si>
+  <si>
+    <t>PointOfDiversionID
+-
+WellID</t>
+  </si>
+  <si>
+    <t>AllSurfaceWaterPoints
+-
+-</t>
+  </si>
+  <si>
+    <t>SourceName
+-
+-</t>
+  </si>
+  <si>
+    <t>Use 'RightID' with https://nednr.nebraska.gov/dynamic/WaterRights/WaterRights/SWRDetailPage?RightId=
+-
+https://nednr.nebraska.gov/Dynamic/Wells/Wells/WellDetails?WellId=</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2151,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2340,6 +2431,21 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2700,7 +2806,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,65 +2817,72 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="86" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="71"/>
+      <c r="B6" s="71" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2786,10 +2899,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2798,10 +2917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,13 +2959,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2887,10 +3006,10 @@
         <v>11</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2904,7 +3023,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="44"/>
@@ -2912,10 +3031,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2932,7 +3051,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -2940,10 +3059,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2960,7 +3079,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -2971,7 +3090,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2988,7 +3107,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -2999,7 +3118,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3016,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -3024,10 +3143,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3044,7 +3163,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -3053,7 +3172,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3070,7 +3189,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
@@ -3078,10 +3197,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3098,7 +3217,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
@@ -3106,10 +3225,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3126,7 +3245,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -3134,10 +3253,15 @@
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="96" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3146,9 +3270,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{CAB38760-5664-497C-A843-56725EBF943A}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{1B662A35-9630-46F9-95CC-8AFFF7ED6110}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3196,13 +3321,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3243,7 +3368,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3260,7 +3385,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -3272,10 +3397,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3307,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3324,7 +3449,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>38</v>
@@ -3336,10 +3461,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3356,7 +3481,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>38</v>
@@ -3368,10 +3493,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3388,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>38</v>
@@ -3400,10 +3525,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3420,7 +3545,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -3432,10 +3557,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3467,7 +3592,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3484,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>38</v>
@@ -3496,10 +3621,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3516,7 +3641,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>38</v>
@@ -3528,10 +3653,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3548,7 +3673,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>38</v>
@@ -3560,10 +3685,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3577,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3619,13 +3744,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3666,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3683,7 +3808,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -3695,10 +3820,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3715,7 +3840,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -3727,10 +3852,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3747,7 +3872,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>38</v>
@@ -3759,15 +3884,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -3778,8 +3903,8 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="84" t="s">
-        <v>352</v>
+      <c r="E7" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>38</v>
@@ -3791,15 +3916,15 @@
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -3811,7 +3936,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>38</v>
@@ -3823,27 +3948,27 @@
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -3855,27 +3980,27 @@
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>365</v>
+      <c r="E10" s="84" t="s">
+        <v>347</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>38</v>
@@ -3887,75 +4012,46 @@
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="J10" s="58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="58" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>186</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -3978,21 +4074,16 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
-    <sortCondition ref="A17:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
+    <sortCondition ref="A16:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{3BC94D6D-9B77-4677-9563-78270002D195}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{1BF60A75-0F81-4584-917F-543AE08CD96E}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{04BD2FCC-23B4-4B60-9BBB-B1E3517E99D5}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{2D05C693-733A-4F27-B2CE-213796E053BF}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{1BF60A75-0F81-4584-917F-543AE08CD96E}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{2D05C693-733A-4F27-B2CE-213796E053BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4001,7 +4092,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4010,7 +4101,7 @@
     <col min="2" max="2" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.77734375" style="5" bestFit="1" customWidth="1"/>
@@ -4040,13 +4131,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4085,7 +4176,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4102,7 +4193,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F4" s="76" t="s">
         <v>38</v>
@@ -4112,10 +4203,10 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4132,7 +4223,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>38</v>
@@ -4145,7 +4236,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4162,7 +4253,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="70" t="s">
         <v>38</v>
@@ -4175,7 +4266,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4192,7 +4283,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="70" t="s">
         <v>38</v>
@@ -4202,13 +4293,13 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -4224,18 +4315,18 @@
       <c r="E8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="78" t="s">
-        <v>353</v>
+      <c r="F8" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>419</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4252,7 +4343,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="70" t="s">
         <v>38</v>
@@ -4265,10 +4356,10 @@
         <v>17839</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -4282,7 +4373,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="F10" s="70" t="s">
         <v>38</v>
@@ -4292,10 +4383,10 @@
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4319,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4330,7 +4421,7 @@
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" style="5" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="33.77734375" style="5" customWidth="1"/>
@@ -4359,13 +4450,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4404,7 +4495,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4419,7 +4510,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -4429,10 +4520,10 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4440,7 +4531,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
@@ -4449,7 +4540,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -4459,10 +4550,10 @@
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4478,29 +4569,29 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>18</v>
@@ -4509,20 +4600,20 @@
         <v>38</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>38</v>
+        <v>409</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="19" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4539,7 +4630,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>38</v>
@@ -4549,10 +4640,10 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4569,7 +4660,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>38</v>
@@ -4580,7 +4671,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="18"/>
       <c r="J9" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4597,7 +4688,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>38</v>
@@ -4610,15 +4701,15 @@
         <v>38</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>18</v>
@@ -4630,17 +4721,17 @@
         <v>38</v>
       </c>
       <c r="F11" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>399</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="19" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4648,7 +4739,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>18</v>
@@ -4657,7 +4748,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>38</v>
@@ -4670,10 +4761,10 @@
         <v>38</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -4690,20 +4781,20 @@
         <v>38</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -4719,21 +4810,21 @@
       <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>38</v>
+      <c r="F14" s="33" t="s">
+        <v>391</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -4747,10 +4838,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>38</v>
@@ -4760,7 +4851,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4777,7 +4868,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>38</v>
@@ -4790,12 +4881,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4807,7 +4898,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>38</v>
@@ -4817,11 +4908,11 @@
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="88" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -4833,23 +4924,23 @@
         <v>38</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>38</v>
+        <v>409</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>395</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -4863,20 +4954,20 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>38</v>
+        <v>396</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4893,7 +4984,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>38</v>
@@ -4903,13 +4994,13 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -4922,21 +5013,21 @@
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>240</v>
+      <c r="E21" s="23" t="s">
+        <v>401</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4953,7 +5044,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>38</v>
@@ -4963,10 +5054,10 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4983,7 +5074,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>38</v>
@@ -4996,7 +5087,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5012,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5023,8 +5114,8 @@
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="97" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" style="5" customWidth="1"/>
     <col min="10" max="10" width="116.109375" style="5" customWidth="1"/>
@@ -5038,7 +5129,7 @@
       <c r="D1" s="15"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -5052,13 +5143,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5072,7 +5163,7 @@
     </row>
     <row r="3" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>33</v>
@@ -5084,7 +5175,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="35"/>
       <c r="H3" s="37" t="s">
         <v>38</v>
@@ -5093,7 +5184,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -5125,7 +5216,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -5157,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -5189,7 +5280,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -5221,7 +5312,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -5253,12 +5344,12 @@
         <v>371091</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>34</v>
@@ -5270,7 +5361,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
@@ -5292,7 +5383,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>38</v>
@@ -5307,7 +5398,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5324,7 +5415,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>38</v>
@@ -5339,7 +5430,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5356,7 +5447,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>38</v>
@@ -5371,7 +5462,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5388,7 +5479,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>38</v>
@@ -5403,7 +5494,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5420,9 +5511,9 @@
         <v>38</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="99" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="42" t="s">
@@ -5435,12 +5526,12 @@
         <v>38</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>33</v>
@@ -5452,7 +5543,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>38</v>
@@ -5467,12 +5558,12 @@
         <v>5363</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
@@ -5484,27 +5575,27 @@
         <v>38</v>
       </c>
       <c r="E16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="59" t="s">
         <v>158</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>68</v>
@@ -5516,27 +5607,27 @@
         <v>38</v>
       </c>
       <c r="E17" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="59" t="s">
         <v>158</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>34</v>
@@ -5548,7 +5639,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>38</v>
@@ -5560,15 +5651,15 @@
         <v>38</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -5580,27 +5671,27 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="59" t="s">
         <v>158</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>34</v>
@@ -5612,7 +5703,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>38</v>
@@ -5624,15 +5715,15 @@
         <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
@@ -5644,27 +5735,27 @@
         <v>38</v>
       </c>
       <c r="E21" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="59" t="s">
         <v>158</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>33</v>
@@ -5676,7 +5767,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>38</v>
@@ -5691,12 +5782,12 @@
         <v>5200</v>
       </c>
       <c r="J22" s="58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="49" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A23" s="89" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>69</v>
@@ -5708,13 +5799,13 @@
         <v>38</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="G23" s="78" t="s">
-        <v>394</v>
+        <v>403</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>402</v>
       </c>
       <c r="H23" s="90" t="s">
         <v>38</v>
@@ -5723,12 +5814,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="92" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
@@ -5743,24 +5834,24 @@
         <v>38</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>357</v>
+        <v>396</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>404</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
@@ -5775,24 +5866,24 @@
         <v>38</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>416</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
@@ -5806,25 +5897,25 @@
       <c r="E26" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>367</v>
+      <c r="F26" s="33" t="s">
+        <v>396</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H26" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>33</v>
@@ -5839,24 +5930,24 @@
         <v>38</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>358</v>
+        <v>398</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>15</v>
@@ -5868,7 +5959,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>38</v>
@@ -5883,15 +5974,15 @@
         <v>38</v>
       </c>
       <c r="J28" s="58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -5900,7 +5991,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="20"/>
@@ -5911,15 +6002,15 @@
         <v>44196</v>
       </c>
       <c r="J29" s="58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -5928,7 +6019,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="20"/>
@@ -5939,12 +6030,12 @@
         <v>43831</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>34</v>
@@ -5956,7 +6047,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>38</v>
@@ -5968,15 +6059,15 @@
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="49" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A32" s="89" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="89" t="s">
-        <v>369</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>69</v>
@@ -5988,13 +6079,13 @@
         <v>38</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="G32" s="78" t="s">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>407</v>
       </c>
       <c r="H32" s="90" t="s">
         <v>38</v>
@@ -6003,12 +6094,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="36" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
@@ -6023,10 +6114,10 @@
         <v>38</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>38</v>
@@ -6035,12 +6126,12 @@
         <v>38</v>
       </c>
       <c r="J33" s="81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
@@ -6052,27 +6143,27 @@
         <v>38</v>
       </c>
       <c r="E34" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="59" t="s">
         <v>158</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -6084,7 +6175,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>38</v>
@@ -6096,15 +6187,15 @@
         <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="49" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>15</v>
@@ -6116,7 +6207,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F36" s="33" t="s">
         <v>38</v>
@@ -6128,15 +6219,15 @@
         <v>38</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="50" t="s">
         <v>33</v>
@@ -6148,10 +6239,14 @@
         <v>38</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>396</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="69"/>
+        <v>386</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="69" t="s">
+        <v>38</v>
+      </c>
       <c r="H37" s="37" t="s">
         <v>38</v>
       </c>
@@ -6159,12 +6254,12 @@
         <v>43874</v>
       </c>
       <c r="J37" s="58" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>15</v>
@@ -6176,7 +6271,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F38" s="33" t="s">
         <v>38</v>
@@ -6191,15 +6286,15 @@
         <v>33187</v>
       </c>
       <c r="J38" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="89" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>18</v>
@@ -6220,9 +6315,9 @@
       <c r="I39" s="93"/>
       <c r="J39" s="94"/>
     </row>
-    <row r="40" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>69</v>
@@ -6234,7 +6329,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>38</v>
@@ -6249,12 +6344,12 @@
         <v>38</v>
       </c>
       <c r="J40" s="58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="36" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>69</v>
@@ -6266,25 +6361,25 @@
         <v>38</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>38</v>
+        <v>409</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="H41" s="36"/>
       <c r="I41" s="62" t="s">
         <v>38</v>
       </c>
       <c r="J41" s="58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>15</v>
@@ -6296,7 +6391,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>38</v>
@@ -6308,15 +6403,15 @@
         <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6328,27 +6423,27 @@
         <v>38</v>
       </c>
       <c r="E43" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="59" t="s">
         <v>158</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6360,7 +6455,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>38</v>
@@ -6372,10 +6467,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="62" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J44" s="58" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6386,7 +6481,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>33</v>
@@ -6398,7 +6493,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>38</v>
@@ -6413,12 +6508,12 @@
         <v>38</v>
       </c>
       <c r="J45" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>16</v>
@@ -6430,30 +6525,30 @@
         <v>20</v>
       </c>
       <c r="E46" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="59" t="s">
         <v>158</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J46" s="59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="51" t="s">
         <v>18</v>
@@ -6462,7 +6557,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>38</v>
@@ -6474,15 +6569,15 @@
         <v>38</v>
       </c>
       <c r="I47" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" s="58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>34</v>
@@ -6497,19 +6592,19 @@
         <v>38</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="H48" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J48" s="58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6534,18 +6629,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H2" t="str">
         <f>""""&amp;TRIM(A2)&amp;""""&amp;" : "&amp;""""&amp;TRIM(B2)&amp;""""&amp;","</f>
@@ -6554,10 +6649,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H39" si="0">""""&amp;TRIM(A3)&amp;""""&amp;" : "&amp;""""&amp;TRIM(B3)&amp;""""&amp;","</f>
@@ -6566,10 +6661,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -6578,10 +6673,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -6590,10 +6685,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -6602,10 +6697,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -6614,10 +6709,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -6626,10 +6721,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -6638,10 +6733,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -6650,10 +6745,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -6662,10 +6757,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -6674,10 +6769,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -6686,10 +6781,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="73" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -6698,10 +6793,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -6710,10 +6805,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="73" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -6722,10 +6817,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="73" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -6734,10 +6829,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -6746,10 +6841,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -6758,10 +6853,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -6770,10 +6865,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -6782,10 +6877,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="73" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -6794,10 +6889,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -6806,10 +6901,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -6818,10 +6913,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -6830,10 +6925,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B26" s="73" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -6842,10 +6937,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -6854,10 +6949,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="73" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -6866,10 +6961,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="73" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -6878,10 +6973,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -6890,10 +6985,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="73" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -6902,10 +6997,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -6914,10 +7009,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="73" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -6926,10 +7021,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="73" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -6938,10 +7033,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="73" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -6950,10 +7045,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="73" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -6962,10 +7057,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="73" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B37" s="73" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -6974,10 +7069,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B38" s="73" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -6986,10 +7081,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="73" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B39" s="73" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -7016,106 +7111,106 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
